--- a/财务报表/财务表.xlsx
+++ b/财务报表/财务表.xlsx
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="W135" sqref="A3:W135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
